--- a/biology/Botanique/Espaces_botaniques_universitaires_de_Liège/Espaces_botaniques_universitaires_de_Liège.xlsx
+++ b/biology/Botanique/Espaces_botaniques_universitaires_de_Liège/Espaces_botaniques_universitaires_de_Liège.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Espaces_botaniques_universitaires_de_Li%C3%A8ge</t>
+          <t>Espaces_botaniques_universitaires_de_Liège</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Espaces botaniques universitaires de Liège (EBULg) est une ASBL de  l'université de Liège regroupant 4 institutions botaniques réparties au Sart Tilman et au centre-ville à l'institut de zoologie de Liège.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Espaces_botaniques_universitaires_de_Li%C3%A8ge</t>
+          <t>Espaces_botaniques_universitaires_de_Liège</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,87 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Espaces botaniques universitaires de Liège créés en 2008 par l'université de Liège regroupent quatre sites distincts botaniques : l’Observatoire du Monde des Plantes du Sart Tilman, le Jardin botanique et l’arboretum du Sart Tilman, la Galerie de la Botanique et le Jardin du Monde à l'institut de zoologie de Liège. L'ensemble couvre une superficie de 21 hectares.
 Les espaces ont une approche pédagogique visant un public le plus large possible : élèves, étudiants, grand public et chercheurs.
 L'ASBL les Espaces botaniques universitaires de Liège  jardins font partie du Pôle muséal &amp; culturel de l'Université de Liège, qui comprend entre autres l'Aquarium-Muséum, la maison de la science, la maison de la métallurgie, l'ASBL Haute Ardenne, Hexapoda et la société astronomique de Liège.
-Observatoire du Monde des Plantes
-L'Observatoire du Monde des Plantes est un site de l'université de Liège crée en 1996 situé dans le domaine universitaire du Sart Tilman. Il s'agit de complexe de serres de 2 300 m2 divisé en plusieurs parties : une serre tempérée, une serre à climat méditerranéen, une serre tropicale et une serre de climat désertique.
-Jardin botanique et l'arboretum
-Le jardin botanique et l'arboretum sont également situé dans le domaine universitaire intégrés dans la forêt du Sart Tilman. En plus d'une collection d'arbres, il comprend un espace semi-naturel comprenant un fruticetum et un jardin de plantes aquatiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Espaces_botaniques_universitaires_de_Liège</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Espaces_botaniques_universitaires_de_Li%C3%A8ge</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Observatoire du Monde des Plantes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Observatoire du Monde des Plantes est un site de l'université de Liège crée en 1996 situé dans le domaine universitaire du Sart Tilman. Il s'agit de complexe de serres de 2 300 m2 divisé en plusieurs parties : une serre tempérée, une serre à climat méditerranéen, une serre tropicale et une serre de climat désertique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Espaces_botaniques_universitaires_de_Liège</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Espaces_botaniques_universitaires_de_Li%C3%A8ge</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jardin botanique et l'arboretum</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin botanique et l'arboretum sont également situé dans le domaine universitaire intégrés dans la forêt du Sart Tilman. En plus d'une collection d'arbres, il comprend un espace semi-naturel comprenant un fruticetum et un jardin de plantes aquatiques.
 </t>
         </is>
       </c>
